--- a/results/iphone_results.xlsx
+++ b/results/iphone_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K156"/>
+  <dimension ref="A1:M156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,16 @@
           <t>smartphonemirai_price</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>linxas/yso</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>smartphonemirai/yso</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -520,6 +530,8 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +559,8 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -574,6 +588,8 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,9 +614,23 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>LSAIP004SBC0001</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>C25-21/液晶 iPhone 4S 黒 規格品</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1433</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1.595768374164811</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -628,6 +658,8 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -655,6 +687,8 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -684,14 +718,16 @@
           <t>iPhone 5s/SE 再生品 白</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>1,650</t>
-        </is>
+      <c r="H8" t="n">
+        <v>1650</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1.126279863481229</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -721,14 +757,16 @@
           <t>iPhone 5s/SE 再生品 黒</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1,650</t>
-        </is>
+      <c r="H9" t="n">
+        <v>1650</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1.126279863481229</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -758,14 +796,16 @@
           <t>iPhone 6 再生品 白</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2,398</t>
-        </is>
+      <c r="H10" t="n">
+        <v>2398</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1.608316566063045</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -795,14 +835,16 @@
           <t>iPhone 6 再生品 黒</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2,398</t>
-        </is>
+      <c r="H11" t="n">
+        <v>2398</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1.608316566063045</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -832,14 +874,16 @@
           <t>iPhone 6Plus 再生品 白</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>3,080</t>
-        </is>
+      <c r="H12" t="n">
+        <v>3080</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1.364038972542073</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -869,14 +913,16 @@
           <t>iPhone 6Plus 再生品 黒</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>3,080</t>
-        </is>
+      <c r="H13" t="n">
+        <v>3080</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>2.053333333333333</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -906,14 +952,16 @@
           <t>iPhone 6s 再生品 白</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>3,080</t>
-        </is>
+      <c r="H14" t="n">
+        <v>3080</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>2.156862745098039</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -943,14 +991,16 @@
           <t>iPhone 6s 再生品 黒</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>3,080</t>
-        </is>
+      <c r="H15" t="n">
+        <v>3080</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>2.156862745098039</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -980,14 +1030,16 @@
           <t>iPhone 6sPlus 再生品 白</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>4,950</t>
-        </is>
+      <c r="H16" t="n">
+        <v>4950</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1.733193277310924</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1017,14 +1069,16 @@
           <t>iPhone 6sPlus 再生品 黒</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>4,950</t>
-        </is>
+      <c r="H17" t="n">
+        <v>4950</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1.733193277310924</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1054,14 +1108,16 @@
           <t>iPhone 7 再生品 白</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2,838</t>
-        </is>
+      <c r="H18" t="n">
+        <v>2838</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>2.161462300076161</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1091,14 +1147,16 @@
           <t>iPhone 7 再生品 黒</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2,838</t>
-        </is>
+      <c r="H19" t="n">
+        <v>2838</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>2.161462300076161</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1128,14 +1186,16 @@
           <t>iPhone 7Plus 再生品 DTP 白 (全てのシリアル番号に対応します)</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>4,400</t>
-        </is>
+      <c r="H20" t="n">
+        <v>4400</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1.193705914270212</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1165,14 +1225,16 @@
           <t>iPhone 7Plus 再生品 DTP 黒 (全てのシリアル番号に対応します)</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>4,400</t>
-        </is>
+      <c r="H21" t="n">
+        <v>4400</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1.193705914270212</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1202,14 +1264,16 @@
           <t>iPhone 8 再生品 白</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>3,135</t>
-        </is>
+      <c r="H22" t="n">
+        <v>3135</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1.959375</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1239,14 +1303,16 @@
           <t>iPhone 8/SE(第2/3世代) 再生品 黒</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>3,135</t>
-        </is>
+      <c r="H23" t="n">
+        <v>3135</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1.959375</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1276,14 +1342,16 @@
           <t>iPhone 8Plus 再生品 DTP 白 (全てのシリアル番号に対応します)</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>4,730</t>
-        </is>
+      <c r="H24" t="n">
+        <v>4730</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1.373403019744483</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1313,14 +1381,16 @@
           <t>iPhone 8Plus 再生品 DTP 黒 (全てのシリアル番号に対応します)</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>4,730</t>
-        </is>
+      <c r="H25" t="n">
+        <v>4730</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1.373403019744483</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1350,14 +1420,16 @@
           <t>iPhone X 再生品</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>8,800</t>
-        </is>
+      <c r="H26" t="n">
+        <v>8800</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1.166180758017493</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1387,14 +1459,16 @@
           <t>iPhone XS 再生品</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>8,800</t>
-        </is>
+      <c r="H27" t="n">
+        <v>8800</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1.203665709205307</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1424,14 +1498,16 @@
           <t>iPhone XSMax 再生品</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>14,014</t>
-        </is>
+      <c r="H28" t="n">
+        <v>14014</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1.228113224082026</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1461,14 +1537,16 @@
           <t>iPhone XR 再生品</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>4,653</t>
-        </is>
+      <c r="H29" t="n">
+        <v>4653</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1.708777084098421</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1498,14 +1576,16 @@
           <t>iPhone 11 再生品</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>4,950</t>
-        </is>
+      <c r="H30" t="n">
+        <v>4950</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1.603498542274052</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1535,14 +1615,16 @@
           <t>iPhone 11Pro 再生品</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>9,482</t>
-        </is>
+      <c r="H31" t="n">
+        <v>9482</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1.271727467811159</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1572,14 +1654,16 @@
           <t>iPhone 11ProMax 再生品</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>13,717</t>
-        </is>
+      <c r="H32" t="n">
+        <v>13717</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1.310499665615745</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1609,14 +1693,16 @@
           <t>iPhone 12/12Pro 再生品</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>15,224</t>
-        </is>
+      <c r="H33" t="n">
+        <v>15224</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1.802723505032564</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1646,14 +1732,16 @@
           <t>iPhone 12ProMax 再生品</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>35,156</t>
-        </is>
+      <c r="H34" t="n">
+        <v>35156</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1.623308860876391</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1683,14 +1771,16 @@
           <t>iPhone 12mini 再生品</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>18,238</t>
-        </is>
+      <c r="H35" t="n">
+        <v>18238</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1.635255088317045</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1720,14 +1810,16 @@
           <t>iPhone 13 再生品</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>24,288</t>
-        </is>
+      <c r="H36" t="n">
+        <v>24288</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>2.130526315789474</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1757,14 +1849,16 @@
           <t>iPhone 13Pro 再生品</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>49,863</t>
-        </is>
+      <c r="H37" t="n">
+        <v>49863</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1.331313077374913</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1794,14 +1888,16 @@
           <t>iPhone 13ProMax 再生品</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>53,350</t>
-        </is>
+      <c r="H38" t="n">
+        <v>53350</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1.351043354943274</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1831,14 +1927,16 @@
           <t>iPhone 13mini 再生品</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>25,784</t>
-        </is>
+      <c r="H39" t="n">
+        <v>25784</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1.653880692751764</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1868,14 +1966,16 @@
           <t>iPhone 14 再生品</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>30,316</t>
-        </is>
+      <c r="H40" t="n">
+        <v>30316</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>2.041618964240016</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1905,14 +2005,16 @@
           <t>iPhone 14Pro 再生品</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>55,088</t>
-        </is>
+      <c r="H41" t="n">
+        <v>55088</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1.221924006831844</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1942,14 +2044,16 @@
           <t>iPhone 14ProMax 再生品</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>62,040</t>
-        </is>
+      <c r="H42" t="n">
+        <v>62040</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1.359214792743844</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1979,14 +2083,16 @@
           <t>iPhone 14Plus 再生品</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>35,453</t>
-        </is>
+      <c r="H43" t="n">
+        <v>35453</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>2.532357142857143</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2016,14 +2122,16 @@
           <t>iPhone 15 再生品</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>50,292</t>
-        </is>
+      <c r="H44" t="n">
+        <v>50292</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1.364961324467363</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2053,14 +2161,16 @@
           <t>iPhone 15Pro 再生品</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>66,814</t>
-        </is>
+      <c r="H45" t="n">
+        <v>66814</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1.692007698541329</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2090,14 +2200,16 @@
           <t>iPhone 15ProMax 再生品</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>84,975</t>
-        </is>
+      <c r="H46" t="n">
+        <v>84975</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1.34588276288072</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2127,14 +2239,16 @@
           <t>iPhone 15Plus 再生品</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>66,814</t>
-        </is>
+      <c r="H47" t="n">
+        <v>66814</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1.606067161847071</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2164,14 +2278,16 @@
           <t>iPhone 5 コピーパネル 白</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>1,364</t>
-        </is>
+      <c r="H48" t="n">
+        <v>1364</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1.571428571428571</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2201,14 +2317,16 @@
           <t>iPhone 5 コピーパネル 黒</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>1,364</t>
-        </is>
+      <c r="H49" t="n">
+        <v>1364</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1.657351154313487</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2238,14 +2356,16 @@
           <t>iPhone 5s/SE コピーパネル 白</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>1,364</t>
-        </is>
+      <c r="H50" t="n">
+        <v>1364</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1.70074812967581</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2275,14 +2395,16 @@
           <t>iPhone 5s/SE コピーパネル 黒</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>1,364</t>
-        </is>
+      <c r="H51" t="n">
+        <v>1364</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1.625744934445769</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2304,12 +2426,24 @@
       <c r="E52" t="n">
         <v>877</v>
       </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>2085210711982</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>iPhone 5c コピーパネル 黒</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1364</v>
+      </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1.555302166476625</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2339,14 +2473,16 @@
           <t>iPhone 6 コピーパネル 白</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>1,364</t>
-        </is>
+      <c r="H53" t="n">
+        <v>1364</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1.70074812967581</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2376,14 +2512,16 @@
           <t>iPhone 6 コピーパネル 黒</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>1,364</t>
-        </is>
+      <c r="H54" t="n">
+        <v>1364</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1.571428571428571</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2413,14 +2551,16 @@
           <t>iPhone 6Plus コピーパネル 白</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>1,606</t>
-        </is>
+      <c r="H55" t="n">
+        <v>1606</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1.655670103092783</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2450,14 +2590,16 @@
           <t>iPhone 6Plus コピーパネル 黒</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>1,606</t>
-        </is>
+      <c r="H56" t="n">
+        <v>1606</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1.32617671345995</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2487,14 +2629,16 @@
           <t>iPhone 6s コピーパネル 白</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>1,419</t>
-        </is>
+      <c r="H57" t="n">
+        <v>1419</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1.876984126984127</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2524,14 +2668,16 @@
           <t>iPhone 6s コピーパネル 黒</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>1,419</t>
-        </is>
+      <c r="H58" t="n">
+        <v>1419</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1.876984126984127</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2561,14 +2707,16 @@
           <t>iPhone 6sPlus コピーパネル 白</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>1,760</t>
-        </is>
+      <c r="H59" t="n">
+        <v>1760</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1.94905869324474</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2598,14 +2746,16 @@
           <t>iPhone 6sPlus コピーパネル 黒</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>1,760</t>
-        </is>
+      <c r="H60" t="n">
+        <v>1760</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1.94905869324474</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2635,14 +2785,16 @@
           <t>iPhone 7 コピーパネル (高品質) 白</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>1,925</t>
-        </is>
+      <c r="H61" t="n">
+        <v>1925</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>2.542932628797886</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2672,14 +2824,16 @@
           <t>iPhone 7 コピーパネル (高品質) 黒</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>1,925</t>
-        </is>
+      <c r="H62" t="n">
+        <v>1925</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>2.542932628797886</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2709,14 +2863,16 @@
           <t>iPhone 7Plus コピーパネル (高品質) 白</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2,233</t>
-        </is>
+      <c r="H63" t="n">
+        <v>2233</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>2.472868217054264</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2746,14 +2902,16 @@
           <t>iPhone 7Plus コピーパネル (高品質) 黒</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2,233</t>
-        </is>
+      <c r="H64" t="n">
+        <v>2233</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>2.472868217054264</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2783,14 +2941,16 @@
           <t>iPhone 8 コピーパネル 白</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>1,419</t>
-        </is>
+      <c r="H65" t="n">
+        <v>1419</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1.730487804878049</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2820,14 +2980,16 @@
           <t>iPhone 8/SE(第2世代) コピーパネル 黒</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>1,419</t>
-        </is>
+      <c r="H66" t="n">
+        <v>1419</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1.730487804878049</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2857,14 +3019,16 @@
           <t>iPhone 8 コピーパネル (高品質) 白 ※TrueTone移行対応</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>1,925</t>
-        </is>
+      <c r="H67" t="n">
+        <v>1925</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1.374018558172734</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2894,14 +3058,16 @@
           <t>iPhone 8/SE(第2/3世代) コピーパネル (高品質) 黒 ※TrueTone移行対応</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>1,925</t>
-        </is>
+      <c r="H68" t="n">
+        <v>1925</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1.374018558172734</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2923,12 +3089,24 @@
       <c r="E69" t="n">
         <v>903</v>
       </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>2085210712248</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>iPhone 8Plus コピーパネル 白</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1760</v>
+      </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1.94905869324474</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2958,14 +3136,16 @@
           <t>iPhone 8Plus コピーパネル 黒</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>1,760</t>
-        </is>
+      <c r="H70" t="n">
+        <v>1760</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1.94905869324474</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -2995,14 +3175,16 @@
           <t>iPhone 8Plus コピーパネル (高品質) 白 ※TrueTone移行対応</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2,233</t>
-        </is>
+      <c r="H71" t="n">
+        <v>2233</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1.416878172588832</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -3032,14 +3214,16 @@
           <t>iPhone 8Plus コピーパネル (高品質) 黒 ※TrueTone移行対応</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2,233</t>
-        </is>
+      <c r="H72" t="n">
+        <v>2233</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1.416878172588832</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -3069,14 +3253,16 @@
           <t>iPhone X 有機ELコピーパネル (ソフト)</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>6,765</t>
-        </is>
+      <c r="H73" t="n">
+        <v>6765</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1.253474152306837</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -3106,14 +3292,16 @@
           <t>iPhone X 有機ELコピーパネル (ハード)</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>4,565</t>
-        </is>
+      <c r="H74" t="n">
+        <v>4565</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1.628031383737518</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -3143,14 +3331,16 @@
           <t>iPhone X コピーパネル (Incell)【TC】</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2,882</t>
-        </is>
+      <c r="H75" t="n">
+        <v>2882</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1.441</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -3178,6 +3368,8 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -3207,14 +3399,16 @@
           <t>iPhone XS 有機ELコピーパネル (ソフト)</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>6,908</t>
-        </is>
+      <c r="H77" t="n">
+        <v>6908</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1.279970353900315</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -3244,14 +3438,16 @@
           <t>iPhone XS 有機ELコピーパネル (ハード)</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>4,565</t>
-        </is>
+      <c r="H78" t="n">
+        <v>4565</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1.628031383737518</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -3281,14 +3477,28 @@
           <t>iPhone XS コピーパネル (Incell)【TC】</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2,882</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="H79" t="n">
+        <v>2882</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>LSAIP00XS0I0001</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>A08-61/液晶 iPhone XS incell</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>2371</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1.535428875865743</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1.263185935002664</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -3316,6 +3526,8 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -3345,14 +3557,16 @@
           <t>iPhone XSMax 有機ELコピーパネル (ソフト)</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>7,018</t>
-        </is>
+      <c r="H81" t="n">
+        <v>7018</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1.776708860759494</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -3382,14 +3596,16 @@
           <t>iPhone XSMax 有機ELコピーパネル (ハード)</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>7,007</t>
-        </is>
+      <c r="H82" t="n">
+        <v>7007</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1.864059590316574</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -3419,14 +3635,16 @@
           <t>iPhone XSMax コピーパネル (Incell)【TC】</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>3,718</t>
-        </is>
+      <c r="H83" t="n">
+        <v>3718</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1.513843648208469</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -3456,14 +3674,28 @@
           <t>iPhone XR コピーパネル (Incell)【TC】</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2,552</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="H84" t="n">
+        <v>2552</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>LSAIP00XR0I0R01</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>A12-67/液晶 iPhone XR incell R</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>2441</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1.320227625452664</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1.262803931712364</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -3493,14 +3725,16 @@
           <t>iPhone XR コピーパネル (Incell)【RJ】</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>3,113</t>
-        </is>
+      <c r="H85" t="n">
+        <v>3113</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>2.030658838878017</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -3530,14 +3764,16 @@
           <t>iPhone 11Pro 有機ELコピーパネル (ソフト)</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>9,900</t>
-        </is>
+      <c r="H86" t="n">
+        <v>9900</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1.461686106599734</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -3567,14 +3803,16 @@
           <t>iPhone 11Pro 有機ELコピーパネル (ハード)</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>5,687</t>
-        </is>
+      <c r="H87" t="n">
+        <v>5687</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>2.2748</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -3604,14 +3842,16 @@
           <t>iPhone 11Pro コピーパネル (Incell)【TC】</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>3,542</t>
-        </is>
+      <c r="H88" t="n">
+        <v>3542</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1.57843137254902</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -3641,14 +3881,16 @@
           <t>iPhone 11ProMax 有機ELコピーパネル (ソフト)</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>7,590</t>
-        </is>
+      <c r="H89" t="n">
+        <v>7590</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1.686666666666667</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -3678,14 +3920,16 @@
           <t>iPhone 11ProMax 有機ELコピーパネル (ハード)</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>7,667</t>
-        </is>
+      <c r="H90" t="n">
+        <v>7667</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1.876866585067319</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -3715,14 +3959,16 @@
           <t>iPhone 11ProMax コピーパネル (Incell)【TC】</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>3,740</t>
-        </is>
+      <c r="H91" t="n">
+        <v>3740</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1.602399314481577</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -3752,14 +3998,16 @@
           <t>iPhone 11 コピーパネル (Incell)【TC】</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2,552</t>
-        </is>
+      <c r="H92" t="n">
+        <v>2552</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1.276</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -3789,14 +4037,16 @@
           <t>iPhone 11 コピーパネル (Incell)【RJ】</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>3,113</t>
-        </is>
+      <c r="H93" t="n">
+        <v>3113</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>2.030658838878017</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -3826,14 +4076,16 @@
           <t>iPhone 12/12Pro 有機ELコピーパネル (ソフト)</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>16,610</t>
-        </is>
+      <c r="H94" t="n">
+        <v>16610</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>2.262942779291553</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -3863,14 +4115,16 @@
           <t>iPhone 12/12Pro 有機ELコピーパネル (ハード)</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>7,986</t>
-        </is>
+      <c r="H95" t="n">
+        <v>7986</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1.774666666666667</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -3892,12 +4146,24 @@
       <c r="E96" t="n">
         <v>2600</v>
       </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
+      <c r="F96" t="n">
+        <v>2082230211102</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>iPhone 12/12Pro コピーパネル (Incell)【TC】</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4092</v>
+      </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1.573846153846154</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -3927,14 +4193,16 @@
           <t>iPhone 12/12Pro コピーパネル (Incell)【RJ】</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>4,994</t>
-        </is>
+      <c r="H97" t="n">
+        <v>4994</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>2.483341621084038</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -3964,14 +4232,16 @@
           <t>iPhone 12ProMax 有機ELコピーパネル (ソフト)</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>14,135</t>
-        </is>
+      <c r="H98" t="n">
+        <v>14135</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1.543796417649629</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -4001,14 +4271,16 @@
           <t>iPhone 12ProMax 有機ELコピーパネル (ハード)</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>9,757</t>
-        </is>
+      <c r="H99" t="n">
+        <v>9757</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1.449561729312138</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -4038,14 +4310,16 @@
           <t>iPhone 12ProMax コピーパネル (Incell)【TC】</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>7,172</t>
-        </is>
+      <c r="H100" t="n">
+        <v>7172</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1.596616206589492</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -4075,14 +4349,16 @@
           <t>iPhone 12mini 有機ELコピーパネル (ハード)</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>10,582</t>
-        </is>
+      <c r="H101" t="n">
+        <v>10582</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1.79629943982346</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -4112,14 +4388,16 @@
           <t>iPhone 12mini コピーパネル (Incell)【TC】</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>6,028</t>
-        </is>
+      <c r="H102" t="n">
+        <v>6028</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1.303069606571552</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -4141,12 +4419,24 @@
       <c r="E103" t="n">
         <v>7500</v>
       </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
+      <c r="F103" t="n">
+        <v>2082231259271</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>iPhone 13 有機ELコピーパネル (ソフト)</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>15312</v>
+      </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>2.0416</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -4176,14 +4466,16 @@
           <t>iPhone 13 有機ELコピーパネル (ハード)</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>12,232</t>
-        </is>
+      <c r="H104" t="n">
+        <v>12232</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1.91125</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -4213,14 +4505,16 @@
           <t>iPhone 13 コピーパネル (Incell)【TC】</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>6,930</t>
-        </is>
+      <c r="H105" t="n">
+        <v>6930</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1.8775399620699</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -4242,12 +4536,24 @@
       <c r="E106" t="n">
         <v>22000</v>
       </c>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
+      <c r="F106" t="n">
+        <v>2082240110365</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>iPhone 13Pro 有機ELコピーパネル (ソフト)</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>33000</v>
+      </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -4269,12 +4575,24 @@
       <c r="E107" t="n">
         <v>13483</v>
       </c>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
+      <c r="F107" t="n">
+        <v>2082231259288</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>iPhone 13Pro コピーパネル (Incell)【RJ】</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>22000</v>
+      </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1.631684343247052</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -4296,12 +4614,24 @@
       <c r="E108" t="n">
         <v>17500</v>
       </c>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
+      <c r="F108" t="n">
+        <v>2082240110372</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>iPhone 13ProMax 有機ELコピーパネル (ハード)</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>33000</v>
+      </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1.885714285714286</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -4323,12 +4653,24 @@
       <c r="E109" t="n">
         <v>17879</v>
       </c>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
+      <c r="F109" t="n">
+        <v>2082231259295</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>iPhone 13ProMax コピーパネル (Incell)【RJ】</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>26950</v>
+      </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1.507354997483081</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -4356,6 +4698,8 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -4385,14 +4729,16 @@
           <t>iPhone 13mini 有機ELコピーパネル (ハード)</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>12,232</t>
-        </is>
+      <c r="H111" t="n">
+        <v>12232</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1.775842044134727</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -4422,14 +4768,16 @@
           <t>iPhone 13mini コピーパネル (Incell)【RJ】</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>7,172</t>
-        </is>
+      <c r="H112" t="n">
+        <v>7172</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1.565597031215892</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -4459,14 +4807,16 @@
           <t>iPhone 14 有機ELコピーパネル (ソフト)</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>19,250</t>
-        </is>
+      <c r="H113" t="n">
+        <v>19250</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>2.636986301369863</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -4496,14 +4846,16 @@
           <t>iPhone 14 コピーパネル (Incell)【TC】</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>14,850</t>
-        </is>
+      <c r="H114" t="n">
+        <v>14850</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>3.561151079136691</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -4525,12 +4877,24 @@
       <c r="E115" t="n">
         <v>24245</v>
       </c>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
+      <c r="F115" t="n">
+        <v>2082240110396</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>iPhone 14Pro 有機ELコピーパネル (ソフト)</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>40700</v>
+      </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1.678696638482161</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -4552,12 +4916,24 @@
       <c r="E116" t="n">
         <v>4904</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>2082230210716</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>iPhone 14Plus コピーパネル (Incell)【RJ】</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>17204</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>3.50815660685155</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -4579,22 +4955,14 @@
       <c r="E117" t="n">
         <v>7140</v>
       </c>
-      <c r="F117" t="n">
-        <v>2082230210716</v>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>iPhone 14Plus コピーパネル (Incell)【RJ】</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>17,204</t>
-        </is>
-      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -4616,12 +4984,24 @@
       <c r="E118" t="n">
         <v>20327</v>
       </c>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="F118" t="n">
+        <v>2082240110402</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>iPhone 15 有機ELコピーパネル (ソフト)</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>30250</v>
+      </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1.488168445909382</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -4643,12 +5023,24 @@
       <c r="E119" t="n">
         <v>15198</v>
       </c>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
+      <c r="F119" t="n">
+        <v>2082231259349</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>iPhone 15 コピーパネル (Incell)【TC】</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>23760</v>
+      </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1.563363600473747</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -4670,12 +5062,24 @@
       <c r="E120" t="n">
         <v>29842</v>
       </c>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
+      <c r="F120" t="n">
+        <v>2082240110907</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>iPhone 15Pro 有機ELコピーパネル (ソフト)</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>46200</v>
+      </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1.548153609007439</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -4697,12 +5101,24 @@
       <c r="E121" t="n">
         <v>15198</v>
       </c>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
+      <c r="F121" t="n">
+        <v>2082240110297</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>iPhone 15Plus コピーパネル (Incell)【TC】</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>25410</v>
+      </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1.671930517173312</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -4730,6 +5146,8 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -4757,6 +5175,8 @@
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -4784,6 +5204,8 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -4811,6 +5233,8 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -4838,6 +5262,8 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -4865,6 +5291,8 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -4892,6 +5320,8 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -4919,6 +5349,8 @@
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -4946,6 +5378,8 @@
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -4973,6 +5407,8 @@
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -5000,6 +5436,8 @@
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -5027,6 +5465,8 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -5056,14 +5496,16 @@
           <t>iPhone 7 コピーパネル 白</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>1,419</t>
-        </is>
+      <c r="H134" t="n">
+        <v>1419</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1.87450462351387</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -5093,14 +5535,16 @@
           <t>iPhone 7 コピーパネル 黒</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>1,419</t>
-        </is>
+      <c r="H135" t="n">
+        <v>1419</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1.87450462351387</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -5130,14 +5574,16 @@
           <t>iPhone 7Plus コピーパネル 白</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>1,760</t>
-        </is>
+      <c r="H136" t="n">
+        <v>1760</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1.94905869324474</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -5167,14 +5613,16 @@
           <t>iPhone 7Plus コピーパネル 黒</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>1,760</t>
-        </is>
+      <c r="H137" t="n">
+        <v>1760</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1.94905869324474</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -5202,6 +5650,8 @@
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -5229,6 +5679,8 @@
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -5256,6 +5708,8 @@
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -5283,6 +5737,8 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -5312,14 +5768,16 @@
           <t>iPhone X コピーパネル (Incell)【格安】</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2,002</t>
-        </is>
+      <c r="H142" t="n">
+        <v>2002</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1.686604886267902</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -5349,14 +5807,16 @@
           <t>iPhone XS コピーパネル (Incell)【格安】</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2,002</t>
-        </is>
+      <c r="H143" t="n">
+        <v>2002</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1.686604886267902</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -5386,14 +5846,16 @@
           <t>iPhone XSMax コピーパネル (Incell)【格安】</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2,915</t>
-        </is>
+      <c r="H144" t="n">
+        <v>2915</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1.802721088435374</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -5423,14 +5885,16 @@
           <t>iPhone XR コピーパネル (Incell)【格安】</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2,002</t>
-        </is>
+      <c r="H145" t="n">
+        <v>2002</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1.562841530054645</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -5460,14 +5924,16 @@
           <t>iPhone 11Pro コピーパネル (Incell)【格安】</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>3,025</t>
-        </is>
+      <c r="H146" t="n">
+        <v>3025</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1.951612903225806</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -5497,14 +5963,16 @@
           <t>iPhone 11ProMax コピーパネル (Incell)【格安】</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>3,190</t>
-        </is>
+      <c r="H147" t="n">
+        <v>3190</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1.840738603577611</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -5534,14 +6002,16 @@
           <t>iPhone 11 コピーパネル (Incell)【格安】</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2,002</t>
-        </is>
+      <c r="H148" t="n">
+        <v>2002</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1.686604886267902</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -5571,14 +6041,16 @@
           <t>iPhone 12/12Pro コピーパネル (Incell)【格安】</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2,827</t>
-        </is>
+      <c r="H149" t="n">
+        <v>2827</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1.58375350140056</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -5608,14 +6080,16 @@
           <t>iPhone 12ProMax コピーパネル (Incell)【格安】</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>5,478</t>
-        </is>
+      <c r="H150" t="n">
+        <v>5478</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1.534453781512605</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -5645,14 +6119,16 @@
           <t>iPhone 12mini コピーパネル (Incell)【格安】</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>5,940</t>
-        </is>
+      <c r="H151" t="n">
+        <v>5940</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1.663865546218487</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -5682,14 +6158,16 @@
           <t>iPhone 13 コピーパネル (Incell)【格安】</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>5,214</t>
-        </is>
+      <c r="H152" t="n">
+        <v>5214</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>2.673846153846154</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -5719,14 +6197,16 @@
           <t>iPhone 13mini コピーパネル (Incell)【格安】</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>5,445</t>
-        </is>
+      <c r="H153" t="n">
+        <v>5445</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1.346772198862231</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -5756,14 +6236,16 @@
           <t>iPhone 14 コピーパネル (Incell)【格安】</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>8,184</t>
-        </is>
+      <c r="H154" t="n">
+        <v>8184</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>3.274909963985594</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -5785,12 +6267,24 @@
       <c r="E155" t="n">
         <v>4400</v>
       </c>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
+      <c r="F155" t="n">
+        <v>2082231259332</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>iPhone 14Plus コピーパネル (Incell)【格安】</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9339</v>
+      </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>2.1225</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -5818,6 +6312,8 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/iphone_results.xlsx
+++ b/results/iphone_results.xlsx
@@ -527,11 +527,23 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>LSAIP004GWC0001</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>A04-15/液晶 iPhone 4G 白 規格品</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>988</v>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>1.008163265306123</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -556,11 +568,23 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>LSAIP004GBC0001</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>B19-52 /液晶 iPhone 4G 黒 規格品</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>988</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1.468053491827637</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -585,11 +609,23 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>LSAIP004SWC0001</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>C25-22/液晶 iPhone 4S 白 規格品</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1433</v>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1.595768374164811</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -655,11 +691,23 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>LSAIP005GWO0001</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>A07-65/液晶 iPhone 5G 白 再生</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1561</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1.247801758593126</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -684,11 +732,23 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>LSAIP005GBO0001</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>B19-41/【特売セール品】液晶 iPhone 5G 黒 再生</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1561</v>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1.140248356464573</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -721,13 +781,25 @@
       <c r="H8" t="n">
         <v>1650</v>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>LSAIP005SWO0001</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>A07-63/液晶 iPhone 5S/SE 白 再生</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1581</v>
+      </c>
       <c r="L8" t="n">
         <v>1.126279863481229</v>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1.079180887372014</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -760,13 +832,25 @@
       <c r="H9" t="n">
         <v>1650</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>LSAIP005SBO0001</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>A07-64/液晶 iPhone 5S/SE 黒 再生</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1581</v>
+      </c>
       <c r="L9" t="n">
         <v>1.126279863481229</v>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1.079180887372014</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -799,13 +883,25 @@
       <c r="H10" t="n">
         <v>2398</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>LSAIP006GWO0001</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>A07-67/【特売セール品】液晶 iPhone 6G 白 再生</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1615</v>
+      </c>
       <c r="L10" t="n">
         <v>1.608316566063045</v>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1.083165660630449</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -838,13 +934,25 @@
       <c r="H11" t="n">
         <v>2398</v>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>LSAIP006GBO0001</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>A07-68/【特売セール品】液晶 iPhone 6G 黒 再生</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1615</v>
+      </c>
       <c r="L11" t="n">
         <v>1.608316566063045</v>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1.083165660630449</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -877,13 +985,25 @@
       <c r="H12" t="n">
         <v>3080</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>LSAIP006PWO0001</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>A05-35/【特売セール品】液晶 iPhone 6 Plus 白 再生</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>2223</v>
+      </c>
       <c r="L12" t="n">
         <v>1.364038972542073</v>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>0.9844995571302038</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -916,13 +1036,25 @@
       <c r="H13" t="n">
         <v>3080</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>LSAIP006PBO0001</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>A05-36/【特売セール品】液晶 iPhone 6 Plus 黒 再生</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>2223</v>
+      </c>
       <c r="L13" t="n">
         <v>2.053333333333333</v>
       </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1.482</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -955,13 +1087,25 @@
       <c r="H14" t="n">
         <v>3080</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>LSAIP006SWO0001</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>A05-25/液晶 iPhone 6S 白 再生</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1758</v>
+      </c>
       <c r="L14" t="n">
         <v>2.156862745098039</v>
       </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1.23109243697479</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -994,13 +1138,25 @@
       <c r="H15" t="n">
         <v>3080</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>LSAIP006SBO0001</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>A05-26/液晶 iPhone 6S 黒 再生</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1758</v>
+      </c>
       <c r="L15" t="n">
         <v>2.156862745098039</v>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1.23109243697479</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1033,13 +1189,25 @@
       <c r="H16" t="n">
         <v>4950</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>LSAIP06SPWO0001</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>A05-14/【特売セール品】液晶 iPhone 6S Plus 白 再生</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>2993</v>
+      </c>
       <c r="L16" t="n">
         <v>1.733193277310924</v>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1.04796918767507</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1072,13 +1240,25 @@
       <c r="H17" t="n">
         <v>4950</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>LSAIP06SPBO0001</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>A05-16/【特売セール品】液晶 iPhone 6S Plus 黒 再生</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>2993</v>
+      </c>
       <c r="L17" t="n">
         <v>1.733193277310924</v>
       </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1.04796918767507</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1111,13 +1291,25 @@
       <c r="H18" t="n">
         <v>2838</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>LSAIP007GWI0001</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>A05-12/液晶 iPhone 7G 白 incell</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>2421</v>
+      </c>
       <c r="L18" t="n">
         <v>2.161462300076161</v>
       </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1.843869002284844</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1150,13 +1342,25 @@
       <c r="H19" t="n">
         <v>2838</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>LSAIP007GBI0001</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>A05-13/液晶 iPhone 7G 黒 incell</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>2421</v>
+      </c>
       <c r="L19" t="n">
         <v>2.161462300076161</v>
       </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>1.843869002284844</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1189,13 +1393,25 @@
       <c r="H20" t="n">
         <v>4400</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>LSAIP007PWO0001</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>A08-65/液晶 iPhone 7 Plus 白 再生 C3F</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>3420</v>
+      </c>
       <c r="L20" t="n">
         <v>1.193705914270212</v>
       </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>0.9278350515463918</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1228,13 +1444,25 @@
       <c r="H21" t="n">
         <v>4400</v>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>LSAIP007PBO0001</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>A08-66/液晶 iPhone 7 Plus 黒 再生 C3F</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>3420</v>
+      </c>
       <c r="L21" t="n">
         <v>1.193705914270212</v>
       </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>0.9278350515463918</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1267,13 +1495,25 @@
       <c r="H22" t="n">
         <v>3135</v>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>LSAIP008GWO0001</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>A05-34/液晶 iPhone 8G 白 再生</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1615</v>
+      </c>
       <c r="L22" t="n">
         <v>1.959375</v>
       </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>1.009375</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1306,13 +1546,25 @@
       <c r="H23" t="n">
         <v>3135</v>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>LSAIP008GBO0001</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>A05-33/液晶 iPhone 8G/SE2黒 再生</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1615</v>
+      </c>
       <c r="L23" t="n">
         <v>1.959375</v>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>1.009375</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1345,13 +1597,25 @@
       <c r="H24" t="n">
         <v>4730</v>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>LSAIP008PWO0001</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>A05-18/液晶 iPhone 8 Plus 白 再生 C3F LGスクリーン</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>3488</v>
+      </c>
       <c r="L24" t="n">
         <v>1.373403019744483</v>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>1.012775842044135</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1384,13 +1648,25 @@
       <c r="H25" t="n">
         <v>4730</v>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>LSAIP008PBO0001</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>B19-58/液晶 iPhone 8 Plus 黒 再生 C3F LGスクリーン</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>3488</v>
+      </c>
       <c r="L25" t="n">
         <v>1.373403019744483</v>
       </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>1.012775842044135</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1423,13 +1699,25 @@
       <c r="H26" t="n">
         <v>8800</v>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>LSAIP000X0O0001</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>A08-63/液晶 iPhone X 再生</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>7429</v>
+      </c>
       <c r="L26" t="n">
         <v>1.166180758017493</v>
       </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>0.9844950967399947</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1462,13 +1750,25 @@
       <c r="H27" t="n">
         <v>8800</v>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>LSAIP00XS0O0001</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>A08-64/液晶 iPhone XS 再生</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>7429</v>
+      </c>
       <c r="L27" t="n">
         <v>1.203665709205307</v>
       </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>1.016140062918889</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1501,13 +1801,25 @@
       <c r="H28" t="n">
         <v>14014</v>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>LSAIP0XSM0O0001</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>A11-64/液晶 iPhone XS MAX 再生</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>12825</v>
+      </c>
       <c r="L28" t="n">
         <v>1.228113224082026</v>
       </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>1.123915520112172</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1540,13 +1852,25 @@
       <c r="H29" t="n">
         <v>4653</v>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>LSAIP00XR0OC001</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>A09-64/液晶 iPhone XR  再生（コネクタQRが長方形）</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>3240</v>
+      </c>
       <c r="L29" t="n">
         <v>1.708777084098421</v>
       </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>1.18986412045538</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1579,13 +1903,25 @@
       <c r="H30" t="n">
         <v>4950</v>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>LSAIP00110OC001</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>A10-62/液晶 iPhone 11 再生 (コネクタQRが長方形)</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>3515</v>
+      </c>
       <c r="L30" t="n">
         <v>1.603498542274052</v>
       </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>1.138645934564302</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1618,13 +1954,25 @@
       <c r="H31" t="n">
         <v>9482</v>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>LSAIP011P0O0001</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>A09-67/液晶 iPhone 11 Pro 再生</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>7690</v>
+      </c>
       <c r="L31" t="n">
         <v>1.271727467811159</v>
       </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>1.031384120171674</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1657,13 +2005,25 @@
       <c r="H32" t="n">
         <v>13717</v>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>LSAIP11PM0O0001</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>A09-66/液晶 iPhone 11 Pro Max 再生</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>10450</v>
+      </c>
       <c r="L32" t="n">
         <v>1.310499665615745</v>
       </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>0.998375847902933</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1696,13 +2056,25 @@
       <c r="H33" t="n">
         <v>15224</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>LSAIP012P0O0001</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>A08-67/液晶 iPhone 12/12 Pro 再生</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>9500</v>
+      </c>
       <c r="L33" t="n">
         <v>1.802723505032564</v>
       </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1.124925991711072</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1735,13 +2107,25 @@
       <c r="H34" t="n">
         <v>35156</v>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>LSAIP12PM0O0001</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>A09-65/液晶 iPhone 12 Pro Max 再生</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>17290</v>
+      </c>
       <c r="L34" t="n">
         <v>1.623308860876391</v>
       </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>0.7983561896846285</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1774,13 +2158,25 @@
       <c r="H35" t="n">
         <v>18238</v>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>LSAIP12MN0O0001</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>A09-62/液晶 iPhone 12 mini 再生</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>13680</v>
+      </c>
       <c r="L35" t="n">
         <v>1.635255088317045</v>
       </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>1.226575809199319</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1813,13 +2209,25 @@
       <c r="H36" t="n">
         <v>24288</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>LSAIP00130O0001</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>A09-61/【取寄せ品 ※在庫納期確認必要】液晶 iPhone 13  再生　※市況により価格の変動が激しいです。この価格は参考価格となります。商品の価格は弊社までお問合せください。</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>13300</v>
+      </c>
       <c r="L36" t="n">
         <v>2.130526315789474</v>
       </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1.166666666666667</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1852,13 +2260,25 @@
       <c r="H37" t="n">
         <v>49863</v>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>LSAIP013P0O0001</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>B18-67/【取寄せ品 ※在庫納期確認必要】液晶 iPhone 13 Pro  再生　※市況により価格の変動が激しいです。表示価格は参考価格となります。商品の価格は弊社までお問合せください。</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>40850</v>
+      </c>
       <c r="L37" t="n">
         <v>1.331313077374913</v>
       </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1.090671223367331</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1891,13 +2311,25 @@
       <c r="H38" t="n">
         <v>53350</v>
       </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>LSAIP13PM0O0001</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>A10-68/【取寄せ品 ※在庫納期確認必要】液晶 iPhone 13 Pro Max  再生　※市況により価格の変動が激しいです。表示価格は参考価格となります。商品の価格は弊社までお問合せください。</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>49400</v>
+      </c>
       <c r="L38" t="n">
         <v>1.351043354943274</v>
       </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>1.251012965964344</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1930,13 +2362,25 @@
       <c r="H39" t="n">
         <v>25784</v>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>LSAIP13mini0O0001</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>A09-63/【取寄せ品 ※在庫納期確認必要】液晶 iPhone 13 mini  再生　※市況により価格の変動が激しいです。この価格は参考価格となります。商品の価格は弊社までお問合せください。</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>17765</v>
+      </c>
       <c r="L39" t="n">
         <v>1.653880692751764</v>
       </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1.13951250801796</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1969,13 +2413,25 @@
       <c r="H40" t="n">
         <v>30316</v>
       </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>LSAIP140O0001</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>A11-67/【取寄せ品 ※在庫納期確認必要】液晶 iPhone 14  再生　※市況により価格の変動が激しいです。これ価格は参考価格となります。商品の価格は弊社までお問合せください。</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>19694</v>
+      </c>
       <c r="L40" t="n">
         <v>2.041618964240016</v>
       </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1.326284598289447</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2008,13 +2464,25 @@
       <c r="H41" t="n">
         <v>55088</v>
       </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>LSAIP14P0O0001</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>A10-67/【取寄せ品 ※在庫納期確認必要】液晶 iPhone 14 Pro 再生　※市況により価格の変動が激しいです。これ価格は参考価格となります。商品の価格は弊社までお問合せください。</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>41002</v>
+      </c>
       <c r="L41" t="n">
         <v>1.221924006831844</v>
       </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>0.9094780737750372</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2047,13 +2515,25 @@
       <c r="H42" t="n">
         <v>62040</v>
       </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>LSAIP14PM0O0001</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>A11-68/【取寄せ品 ※在庫納期確認必要】液晶 iPhone 14 Pro Max 再生　※市況により価格の変動が激しいです。この価格は参考価格となります。商品の価格は弊社までお問合せください。</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>57048</v>
+      </c>
       <c r="L42" t="n">
         <v>1.359214792743844</v>
       </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>1.249846639207782</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2086,13 +2566,25 @@
       <c r="H43" t="n">
         <v>35453</v>
       </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>LSAIP14PL0O0001</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>B17-68/【取寄せ品 ※在庫納期確認必要】液晶 iPhone 14 Plus 再生　※市況により価格の変動が激しいです。この価格は参考価格となります。商品の価格は弊社までお問合せください。</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>30233</v>
+      </c>
       <c r="L43" t="n">
         <v>2.532357142857143</v>
       </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>2.1595</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2125,13 +2617,25 @@
       <c r="H44" t="n">
         <v>50292</v>
       </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>LSAIP150O0001</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>【取寄せ品 ※在庫納期確認必要】液晶 iPhone 15 再生　※市況により価格の変動が激しいです。これ価格は参考価格となります。商品の価格は弊社までお問合せください。</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>47500</v>
+      </c>
       <c r="L44" t="n">
         <v>1.364961324467363</v>
       </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>1.289184421224047</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2164,13 +2668,25 @@
       <c r="H45" t="n">
         <v>66814</v>
       </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>LSAIP15Pro0O0001</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>C28-48/【取寄せ品 ※価格変動品※在庫納期確認必要】液晶 iPhone 15 Pro 再生　※市況により価格の変動が激しいです。これ価格は参考価格となります。商品の価格は弊社までお問合せください。</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>47500</v>
+      </c>
       <c r="L45" t="n">
         <v>1.692007698541329</v>
       </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>1.202897082658023</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2203,13 +2719,25 @@
       <c r="H46" t="n">
         <v>84975</v>
       </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>LSAIP15ProMax0O0001</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>B23-68/【取寄せ品 ※在庫納期確認必要】液晶 iPhone 15 Pro Max 再生　※市況により価格の変動が激しいです。この価格は参考価格となります。商品の価格は弊社までお問合せください。</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>47500</v>
+      </c>
       <c r="L46" t="n">
         <v>1.34588276288072</v>
       </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>0.7523322299127294</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2242,13 +2770,25 @@
       <c r="H47" t="n">
         <v>66814</v>
       </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>LSAIP15Plus0O0001</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>【取寄せ品 ※在庫納期確認必要】液晶 iPhone 15 PLUS 再生　※市況により価格の変動が激しいです。これ価格は参考価格となります。商品の価格は弊社までお問合せください。</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>47500</v>
+      </c>
       <c r="L47" t="n">
         <v>1.606067161847071</v>
       </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>1.141799475974135</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2281,13 +2821,25 @@
       <c r="H48" t="n">
         <v>1364</v>
       </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>LSAIP005GWC0001</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>A04-16/液晶 iPhone 5G 白 規格品</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1482</v>
+      </c>
       <c r="L48" t="n">
         <v>1.571428571428571</v>
       </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1.707373271889401</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2320,13 +2872,25 @@
       <c r="H49" t="n">
         <v>1364</v>
       </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>LSAIP005GBC0001</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>B19-53/液晶 iPhone 5G 黒 規格品</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1482</v>
+      </c>
       <c r="L49" t="n">
         <v>1.657351154313487</v>
       </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1.800729040097205</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2359,13 +2923,25 @@
       <c r="H50" t="n">
         <v>1364</v>
       </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>LSAIP005SWC0001</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>A05-48/液晶 iPhone 5S/SE 白 規格品</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1284</v>
+      </c>
       <c r="L50" t="n">
         <v>1.70074812967581</v>
       </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>1.600997506234414</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2398,13 +2974,25 @@
       <c r="H51" t="n">
         <v>1364</v>
       </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>LSAIP005SBC0001</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>B19-57/液晶 iPhone 5S/SE 黒 規格品</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1284</v>
+      </c>
       <c r="L51" t="n">
         <v>1.625744934445769</v>
       </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>1.530393325387366</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2476,13 +3064,25 @@
       <c r="H53" t="n">
         <v>1364</v>
       </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>LSAIP006GWC0001</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>A05-47/液晶 iPhone 6G 白 規格品</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1087</v>
+      </c>
       <c r="L53" t="n">
         <v>1.70074812967581</v>
       </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>1.355361596009975</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2515,13 +3115,25 @@
       <c r="H54" t="n">
         <v>1364</v>
       </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>LSAIP006GBC0001</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>B19-56/液晶 iPhone 6G 黒 規格品</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1087</v>
+      </c>
       <c r="L54" t="n">
         <v>1.571428571428571</v>
       </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>1.252304147465438</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2554,13 +3166,25 @@
       <c r="H55" t="n">
         <v>1606</v>
       </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>LSAIP006PWC0001</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>A07-61/液晶 iPhone 6 Plus 白 規格品</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1330</v>
+      </c>
       <c r="L55" t="n">
         <v>1.655670103092783</v>
       </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>1.371134020618557</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2593,13 +3217,25 @@
       <c r="H56" t="n">
         <v>1606</v>
       </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>LSAIP006PBC0001</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>A07-62/液晶 iPhone 6 Plus 黒 規格品</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1330</v>
+      </c>
       <c r="L56" t="n">
         <v>1.32617671345995</v>
       </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>1.098265895953757</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2632,13 +3268,25 @@
       <c r="H57" t="n">
         <v>1419</v>
       </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>LSAIP006SWC0001</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>A05-46/液晶 iPhone 6S 白 規格品</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1186</v>
+      </c>
       <c r="L57" t="n">
         <v>1.876984126984127</v>
       </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>1.568783068783069</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2671,13 +3319,25 @@
       <c r="H58" t="n">
         <v>1419</v>
       </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>LSAIP006SBC0001</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>B19-54/液晶 iPhone 6S 黒 規格品</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1186</v>
+      </c>
       <c r="L58" t="n">
         <v>1.876984126984127</v>
       </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>1.568783068783069</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2710,13 +3370,25 @@
       <c r="H59" t="n">
         <v>1760</v>
       </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>LSAIP06SPBI0001</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>A05-17/【特売セール品】液晶 iPhone 6S Plus 黒 incell</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1805</v>
+      </c>
       <c r="L59" t="n">
         <v>1.94905869324474</v>
       </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>1.998892580287929</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2749,13 +3421,25 @@
       <c r="H60" t="n">
         <v>1760</v>
       </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>LSAIP06SPBI0001</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>A05-17/【特売セール品】液晶 iPhone 6S Plus 黒 incell</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1805</v>
+      </c>
       <c r="L60" t="n">
         <v>1.94905869324474</v>
       </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>1.998892580287929</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2866,13 +3550,25 @@
       <c r="H63" t="n">
         <v>2233</v>
       </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>LSAIP007PWI0001</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>A04-11/液晶 iPhone 7 Plus 白 incell 高品質　ZY製</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1710</v>
+      </c>
       <c r="L63" t="n">
         <v>2.472868217054264</v>
       </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>1.893687707641196</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2905,13 +3601,25 @@
       <c r="H64" t="n">
         <v>2233</v>
       </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>LSAIP007PBI0001</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>A04-12/液晶 iPhone 7 Plus 黒 incell　高品質　ZY製</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1710</v>
+      </c>
       <c r="L64" t="n">
         <v>2.472868217054264</v>
       </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>1.893687707641196</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2944,13 +3652,25 @@
       <c r="H65" t="n">
         <v>1419</v>
       </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>LSAIP008GWN0001</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>A05-37/液晶 iPhone 8G 白 oncell　※True Tone機能なし</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1226</v>
+      </c>
       <c r="L65" t="n">
         <v>1.730487804878049</v>
       </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>1.495121951219512</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2983,13 +3703,25 @@
       <c r="H66" t="n">
         <v>1419</v>
       </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>LSAIP008GBN0001</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>A05-38/液晶 iPhone 8G/SE2/SE3 黒 oncell　※True Tone機能なし</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1226</v>
+      </c>
       <c r="L66" t="n">
         <v>1.730487804878049</v>
       </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>1.495121951219512</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -3100,13 +3832,25 @@
       <c r="H69" t="n">
         <v>1760</v>
       </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>LSAIP008PWN0001</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>A05-43/液晶 iPhone 8 Plus 白 oncell　※True Tone機能なし</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1330</v>
+      </c>
       <c r="L69" t="n">
         <v>1.94905869324474</v>
       </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1.472868217054264</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -3139,13 +3883,25 @@
       <c r="H70" t="n">
         <v>1760</v>
       </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>LSAIP008PBN0001</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>A05-42/液晶 iPhone 8 Plus 黒 oncell　※True Tone機能なし</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1330</v>
+      </c>
       <c r="L70" t="n">
         <v>1.94905869324474</v>
       </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>1.472868217054264</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -3178,13 +3934,25 @@
       <c r="H71" t="n">
         <v>2233</v>
       </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>LSAIP008PWI0001</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>A04-13/液晶 iPhone 8 Plus 白 incell　高品質　ZY製</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1710</v>
+      </c>
       <c r="L71" t="n">
         <v>1.416878172588832</v>
       </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>1.08502538071066</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -3217,13 +3985,25 @@
       <c r="H72" t="n">
         <v>2233</v>
       </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>LSAIP008PBI0001</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>A04-14/液晶 iPhone 8 Plus 黒 incell　高品質　ZY製</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1710</v>
+      </c>
       <c r="L72" t="n">
         <v>1.416878172588832</v>
       </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>1.08502538071066</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -3334,13 +4114,25 @@
       <c r="H75" t="n">
         <v>2882</v>
       </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>LSAIP000X0HQ0S01</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>A04-35/液晶iPhone X incell 高品質 ZY製</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>2014</v>
+      </c>
       <c r="L75" t="n">
         <v>1.441</v>
       </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="M75" t="n">
+        <v>1.007</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -3523,11 +4315,23 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>LSAIP00XS0HQ0S01</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>A04-36/液晶iPhone XS incell 高品質 ZY製</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>2014</v>
+      </c>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1.448920863309352</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -3599,13 +4403,25 @@
       <c r="H82" t="n">
         <v>7007</v>
       </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>LSAIP0XSM0DHS01</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>B17-65/【 SMART 未来 】液晶 iPhone XS Max  OLED ハード</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>4608</v>
+      </c>
       <c r="L82" t="n">
         <v>1.864059590316574</v>
       </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1.22585794094174</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -3638,13 +4454,25 @@
       <c r="H83" t="n">
         <v>3718</v>
       </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>LSAIP0XSM0HQ0S01</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>A04-38/液晶iPhone XS Max incell 高品質 ZY製</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>2451</v>
+      </c>
       <c r="L83" t="n">
         <v>1.513843648208469</v>
       </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>0.9979641693811075</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -3728,13 +4556,25 @@
       <c r="H85" t="n">
         <v>3113</v>
       </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>LSAIP00XR0HQ0S01</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>A04-37/液晶iPhone XR incell 高品質 ZY製</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>2090</v>
+      </c>
       <c r="L85" t="n">
         <v>2.030658838878017</v>
       </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>1.363339856490541</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -3806,13 +4646,25 @@
       <c r="H87" t="n">
         <v>5687</v>
       </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>LSAIP011P0DHS01</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>B17-64/【 SMART 未来 】液晶 iPhone 11 Pro  OLED ハード</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>3990</v>
+      </c>
       <c r="L87" t="n">
         <v>2.2748</v>
       </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1.596</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -3845,13 +4697,25 @@
       <c r="H88" t="n">
         <v>3542</v>
       </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>LSAIP011P0HQ0S01</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>A04-27/液晶iPhone 11 Pro incell 高品質 ZY製</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>2318</v>
+      </c>
       <c r="L88" t="n">
         <v>1.57843137254902</v>
       </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1.032976827094474</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -3923,13 +4787,25 @@
       <c r="H90" t="n">
         <v>7667</v>
       </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>LSAIP11PM0DH001</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>A10-61/【 SMART 未来 】液晶 iPhone 11 Pro Max OLED ハード</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>4560</v>
+      </c>
       <c r="L90" t="n">
         <v>1.876866585067319</v>
       </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1.116279069767442</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -3962,13 +4838,25 @@
       <c r="H91" t="n">
         <v>3740</v>
       </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>LSAIP11PM0HQ0S01</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>A04-26/液晶iPhone 11 Pro Max incell 高品質 ZY製</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>2556</v>
+      </c>
       <c r="L91" t="n">
         <v>1.602399314481577</v>
       </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1.095115681233933</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -4001,13 +4889,25 @@
       <c r="H92" t="n">
         <v>2552</v>
       </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>LSAIP00110I0R01</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>A12-66/液晶 iPhone 11 incell R</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>2441</v>
+      </c>
       <c r="L92" t="n">
         <v>1.276</v>
       </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>1.2205</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -4040,13 +4940,25 @@
       <c r="H93" t="n">
         <v>3113</v>
       </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>LSAIP00110HQ0S01</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>A04-28/液晶iPhone 11 incell 高品質 ZY製</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>2119</v>
+      </c>
       <c r="L93" t="n">
         <v>2.030658838878017</v>
       </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1.382257012393999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -4157,13 +5069,25 @@
       <c r="H96" t="n">
         <v>4092</v>
       </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>LSAIP1212Pro0HQ0S01</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>A04-25/液晶iPhone 12/12Pro incell 高品質 ZY製</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>2755</v>
+      </c>
       <c r="L96" t="n">
         <v>1.573846153846154</v>
       </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1.059615384615385</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -4313,13 +5237,25 @@
       <c r="H100" t="n">
         <v>7172</v>
       </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>LSAIP12PM0HQ0S01</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>A04-24/液晶iPhone 12 Pro Max incell 高品質 ZY製</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>4275</v>
+      </c>
       <c r="L100" t="n">
         <v>1.596616206589492</v>
       </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>0.9516918967052538</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -4391,13 +5327,25 @@
       <c r="H102" t="n">
         <v>6028</v>
       </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>LSAIP12MN0I0001</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>A11-63/液晶 iPhone 12 mini incell</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>4940</v>
+      </c>
       <c r="L102" t="n">
         <v>1.303069606571552</v>
       </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1.067877215737138</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -4430,13 +5378,25 @@
       <c r="H103" t="n">
         <v>15312</v>
       </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>LSAIP00130HQTHLS01</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>A12-53/【特売セール品】液晶 iPhone 13 incell 高品質 THL製</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>3895</v>
+      </c>
       <c r="L103" t="n">
         <v>2.0416</v>
       </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>0.5193333333333333</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -4508,13 +5468,25 @@
       <c r="H105" t="n">
         <v>6930</v>
       </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>LSAIP00130HQZYS01</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>A04-23/液晶 iPhone 13 incell 高品質 ZY製</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>4009</v>
+      </c>
       <c r="L105" t="n">
         <v>1.8775399620699</v>
       </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1.086155513411</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -4664,13 +5636,25 @@
       <c r="H109" t="n">
         <v>26950</v>
       </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>LSAIP13PM0HQZYS01</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>A04-17/液晶 iPhone 13 Pro Max  高品質 ZY製</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>14896</v>
+      </c>
       <c r="L109" t="n">
         <v>1.507354997483081</v>
       </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>0.8331562167906482</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -4732,13 +5716,25 @@
       <c r="H111" t="n">
         <v>12232</v>
       </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>LSAIP13MN0DHS01</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>B18-61/【 SMART 未来 】液晶 iPhone 13 mini   OLED ハード</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>11757</v>
+      </c>
       <c r="L111" t="n">
         <v>1.775842044134727</v>
       </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1.706881533101045</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -4771,13 +5767,25 @@
       <c r="H112" t="n">
         <v>7172</v>
       </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>LSAIP13mini0I0001</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>A11-61/液晶 iPhone 13 mini  incell</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>4940</v>
+      </c>
       <c r="L112" t="n">
         <v>1.565597031215892</v>
       </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1.07836716874045</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -4849,13 +5857,25 @@
       <c r="H114" t="n">
         <v>14850</v>
       </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>LSAIP140HQTHLS01</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>A12-51/【特売セール品】液晶 iPhone 14  高品質 THL製</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>4845</v>
+      </c>
       <c r="L114" t="n">
         <v>3.561151079136691</v>
       </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1.161870503597122</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -4927,13 +5947,25 @@
       <c r="H116" t="n">
         <v>17204</v>
       </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>LSAIP14PL0HQTHLS01</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>A12-52/液晶 iPhone 14 Plus  高品質 THL</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>5225</v>
+      </c>
       <c r="L116" t="n">
         <v>3.50815660685155</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1.065456769983687</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -4958,11 +5990,23 @@
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>LSAIP14PL0HQ0S01</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>A04-21/液晶 iPhone 14 Plus  高品質 ZY製</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>5083</v>
+      </c>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>0.7119047619047619</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -5034,13 +6078,25 @@
       <c r="H119" t="n">
         <v>23760</v>
       </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>LSAIP150HQTHLS01</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>A12-55/【特売セール品】液晶 iPhone 15 高品質 THL製</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>13291</v>
+      </c>
       <c r="L119" t="n">
         <v>1.563363600473747</v>
       </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>0.8745229635478352</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -5112,13 +6168,25 @@
       <c r="H121" t="n">
         <v>25410</v>
       </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>LSAIP15Plus0HQTHLS01</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>A12-56/【特売セール品】液晶 iPhone 15 Plus  高品質 THL製</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>14725</v>
+      </c>
       <c r="L121" t="n">
         <v>1.671930517173312</v>
       </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>0.9688774838794578</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
